--- a/ProcessedData/export_to_r/ante_XWD_export_eledata_synop.xlsx
+++ b/ProcessedData/export_to_r/ante_XWD_export_eledata_synop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriddie\OneDrive - University of North Carolina at Chapel Hill\Documents\Ecuador2021\ProcessedData\export_to_r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33D979-B83D-4624-8A04-3E46CB24E174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6462E-79F1-4C1C-84EA-C2BE7B283AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="0" windowWidth="22110" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ante_XWD_export_eledata_CO2" sheetId="1" r:id="rId1"/>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:AC107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1216,14 +1216,8 @@
         <f>Y4*3*3*0.0001</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="AA4">
-        <v>0.31590000000000001</v>
-      </c>
       <c r="AB4">
         <v>4.2900000000000002E-4</v>
-      </c>
-      <c r="AC4">
-        <v>9.0962499999999995</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
